--- a/data/pca/factorExposure/factorExposure_2009-10-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01433890513096211</v>
+        <v>0.01691576665359637</v>
       </c>
       <c r="C2">
-        <v>-0.001620243614474014</v>
+        <v>-0.000878347575840337</v>
       </c>
       <c r="D2">
-        <v>-0.001548134005199144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008827776056005847</v>
+      </c>
+      <c r="E2">
+        <v>-0.001785914593518374</v>
+      </c>
+      <c r="F2">
+        <v>0.01233095984642632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1028917384168276</v>
+        <v>0.09377287930059683</v>
       </c>
       <c r="C4">
-        <v>-0.01967309521744065</v>
+        <v>-0.01444514007586474</v>
       </c>
       <c r="D4">
-        <v>-0.06722950601128275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08375669002589942</v>
+      </c>
+      <c r="E4">
+        <v>-0.02842950666373687</v>
+      </c>
+      <c r="F4">
+        <v>-0.03183712886027122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.137725755601106</v>
+        <v>0.1587332256197003</v>
       </c>
       <c r="C6">
-        <v>-0.02554881086367213</v>
+        <v>-0.02625831978620495</v>
       </c>
       <c r="D6">
-        <v>0.01607365042248568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02286012671806237</v>
+      </c>
+      <c r="E6">
+        <v>-0.01054553686975502</v>
+      </c>
+      <c r="F6">
+        <v>-0.04393914205084495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07008021553184281</v>
+        <v>0.06378091910498888</v>
       </c>
       <c r="C7">
-        <v>-0.002297858499174547</v>
+        <v>0.001646245280698968</v>
       </c>
       <c r="D7">
-        <v>-0.03741699329896411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05271201946586883</v>
+      </c>
+      <c r="E7">
+        <v>-0.01198285839699103</v>
+      </c>
+      <c r="F7">
+        <v>-0.04702760453064501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06177582845392735</v>
+        <v>0.05731253305036264</v>
       </c>
       <c r="C8">
-        <v>0.01099552307717391</v>
+        <v>0.0134205936592972</v>
       </c>
       <c r="D8">
-        <v>-0.01070646499940708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03223227953783982</v>
+      </c>
+      <c r="E8">
+        <v>-0.01755752099737293</v>
+      </c>
+      <c r="F8">
+        <v>0.0275172975320018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07941176945306888</v>
+        <v>0.0709561324780227</v>
       </c>
       <c r="C9">
-        <v>-0.01659748517213371</v>
+        <v>-0.01019462237510397</v>
       </c>
       <c r="D9">
-        <v>-0.06981866599293596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08689755936652041</v>
+      </c>
+      <c r="E9">
+        <v>-0.02325843156789073</v>
+      </c>
+      <c r="F9">
+        <v>-0.04778388737276476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08054220473986949</v>
+        <v>0.09219462554772803</v>
       </c>
       <c r="C10">
-        <v>-0.009019110463733503</v>
+        <v>-0.02102420408499528</v>
       </c>
       <c r="D10">
-        <v>0.160032311035214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.164971990247009</v>
+      </c>
+      <c r="E10">
+        <v>0.03247667903873878</v>
+      </c>
+      <c r="F10">
+        <v>0.05520441163452285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09531051104902921</v>
+        <v>0.08815510728399496</v>
       </c>
       <c r="C11">
-        <v>-0.01668730699724688</v>
+        <v>-0.01017636614509842</v>
       </c>
       <c r="D11">
-        <v>-0.09923919330781406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171185755894736</v>
+      </c>
+      <c r="E11">
+        <v>-0.04605527206150502</v>
+      </c>
+      <c r="F11">
+        <v>-0.02326184544979654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1023552403290174</v>
+        <v>0.09204126613914379</v>
       </c>
       <c r="C12">
-        <v>-0.01517197053218</v>
+        <v>-0.007544834552019764</v>
       </c>
       <c r="D12">
-        <v>-0.09897589256892619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320729231705261</v>
+      </c>
+      <c r="E12">
+        <v>-0.04628999067257475</v>
+      </c>
+      <c r="F12">
+        <v>-0.02919423811713272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04181663163351484</v>
+        <v>0.04154166980798989</v>
       </c>
       <c r="C13">
-        <v>-0.005713846761688715</v>
+        <v>-0.002326168794306876</v>
       </c>
       <c r="D13">
-        <v>-0.03745954577277769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05387426930267198</v>
+      </c>
+      <c r="E13">
+        <v>0.004581010178629486</v>
+      </c>
+      <c r="F13">
+        <v>-0.001067999503516194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02199267830654203</v>
+        <v>0.02408149929524568</v>
       </c>
       <c r="C14">
-        <v>-0.01511152542283325</v>
+        <v>-0.01378053399533553</v>
       </c>
       <c r="D14">
-        <v>-0.02161804892196629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03286748967711292</v>
+      </c>
+      <c r="E14">
+        <v>-0.01877791113397025</v>
+      </c>
+      <c r="F14">
+        <v>-0.0130384813554776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03620328796019356</v>
+        <v>0.0327116472668198</v>
       </c>
       <c r="C15">
-        <v>-0.007934239788995111</v>
+        <v>-0.004548354256952218</v>
       </c>
       <c r="D15">
-        <v>-0.0266680167195226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04470904981541725</v>
+      </c>
+      <c r="E15">
+        <v>-0.005825538216959749</v>
+      </c>
+      <c r="F15">
+        <v>-0.0244006803532175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07912925030157555</v>
+        <v>0.07437839169675953</v>
       </c>
       <c r="C16">
-        <v>-0.008594308556892969</v>
+        <v>-0.0007988006527823972</v>
       </c>
       <c r="D16">
-        <v>-0.09779400802158236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.12769842073286</v>
+      </c>
+      <c r="E16">
+        <v>-0.0607766736967481</v>
+      </c>
+      <c r="F16">
+        <v>-0.02736609542258795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006310065447799459</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001720533008652187</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001115535750005224</v>
+      </c>
+      <c r="E17">
+        <v>-0.0007324762192919326</v>
+      </c>
+      <c r="F17">
+        <v>0.001074205358480608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.002039675817407558</v>
+        <v>0.03616387529582393</v>
       </c>
       <c r="C18">
-        <v>0.0008753771901942227</v>
+        <v>0.00302262498656538</v>
       </c>
       <c r="D18">
-        <v>-0.004971556403605954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01602094115665279</v>
+      </c>
+      <c r="E18">
+        <v>0.009169941981557446</v>
+      </c>
+      <c r="F18">
+        <v>0.009227800525416135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0633196432823753</v>
+        <v>0.06179042259954163</v>
       </c>
       <c r="C20">
-        <v>-0.006236824177221938</v>
+        <v>9.05667282609569e-05</v>
       </c>
       <c r="D20">
-        <v>-0.0396128997468088</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07798427655045316</v>
+      </c>
+      <c r="E20">
+        <v>-0.05626924640550582</v>
+      </c>
+      <c r="F20">
+        <v>-0.02517141692056691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04592274230526025</v>
+        <v>0.04076154741329887</v>
       </c>
       <c r="C21">
-        <v>-0.009752032062568392</v>
+        <v>-0.006394088862224903</v>
       </c>
       <c r="D21">
-        <v>-0.01152986406311432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03773961811970395</v>
+      </c>
+      <c r="E21">
+        <v>0.001799296722650587</v>
+      </c>
+      <c r="F21">
+        <v>0.025727234368458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03410838782192636</v>
+        <v>0.04320739507583026</v>
       </c>
       <c r="C22">
-        <v>-0.0003934663997522354</v>
+        <v>-0.0003730505028582564</v>
       </c>
       <c r="D22">
-        <v>0.01868030231349226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007011941587720553</v>
+      </c>
+      <c r="E22">
+        <v>-0.03552008758068825</v>
+      </c>
+      <c r="F22">
+        <v>0.03710233324613847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0340651899757603</v>
+        <v>0.04318327500728113</v>
       </c>
       <c r="C23">
-        <v>-0.0003853395757838126</v>
+        <v>-0.0003646797135984187</v>
       </c>
       <c r="D23">
-        <v>0.01866632027134504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007027329112627565</v>
+      </c>
+      <c r="E23">
+        <v>-0.03570249068142298</v>
+      </c>
+      <c r="F23">
+        <v>0.03706445694886924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0867087483467181</v>
+        <v>0.08006841215486912</v>
       </c>
       <c r="C24">
-        <v>-0.008511133795120978</v>
+        <v>-0.00144619908775273</v>
       </c>
       <c r="D24">
-        <v>-0.1060037268968183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1214281243253997</v>
+      </c>
+      <c r="E24">
+        <v>-0.04881806817439999</v>
+      </c>
+      <c r="F24">
+        <v>-0.0276568827917954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09342027190061715</v>
+        <v>0.08541484557635329</v>
       </c>
       <c r="C25">
-        <v>-0.01057006367516713</v>
+        <v>-0.004183534324842089</v>
       </c>
       <c r="D25">
-        <v>-0.09364031369843068</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095983144544043</v>
+      </c>
+      <c r="E25">
+        <v>-0.03218919667188441</v>
+      </c>
+      <c r="F25">
+        <v>-0.02809990015295757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.06109473433979268</v>
+        <v>0.05924016205455805</v>
       </c>
       <c r="C26">
-        <v>-0.01760734032794649</v>
+        <v>-0.01431931288926283</v>
       </c>
       <c r="D26">
-        <v>-0.008968874991071508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0407597418035222</v>
+      </c>
+      <c r="E26">
+        <v>-0.02866140873548306</v>
+      </c>
+      <c r="F26">
+        <v>0.00707866006804969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1355991335857835</v>
+        <v>0.1425044039461397</v>
       </c>
       <c r="C28">
-        <v>-0.00489410794969642</v>
+        <v>-0.02224643314253764</v>
       </c>
       <c r="D28">
-        <v>0.2704085800751321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2610972599598576</v>
+      </c>
+      <c r="E28">
+        <v>0.06710108337925268</v>
+      </c>
+      <c r="F28">
+        <v>-0.007408657588160191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0262585005565916</v>
+        <v>0.02868708573634002</v>
       </c>
       <c r="C29">
-        <v>-0.009894926489988085</v>
+        <v>-0.008658216993770965</v>
       </c>
       <c r="D29">
-        <v>-0.01725632237906256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03110755237660682</v>
+      </c>
+      <c r="E29">
+        <v>-0.0138673776190935</v>
+      </c>
+      <c r="F29">
+        <v>0.0133445982880795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07220147001518333</v>
+        <v>0.0591556367115524</v>
       </c>
       <c r="C30">
-        <v>-0.009259655215131867</v>
+        <v>-0.002494719514203289</v>
       </c>
       <c r="D30">
-        <v>-0.07735175645712358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08948656440368059</v>
+      </c>
+      <c r="E30">
+        <v>-0.01576096031062028</v>
+      </c>
+      <c r="F30">
+        <v>-0.07829407257928514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05111756977704719</v>
+        <v>0.0509228156657317</v>
       </c>
       <c r="C31">
-        <v>-0.01592771994028009</v>
+        <v>-0.01531727346875986</v>
       </c>
       <c r="D31">
-        <v>-0.02009621061572527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02500708477986274</v>
+      </c>
+      <c r="E31">
+        <v>-0.02856409474887573</v>
+      </c>
+      <c r="F31">
+        <v>0.001235661001375242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04978327004696964</v>
+        <v>0.05126506038834191</v>
       </c>
       <c r="C32">
-        <v>-0.001334438778981845</v>
+        <v>0.002008864545129802</v>
       </c>
       <c r="D32">
-        <v>-0.01726390250325419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03641916605090452</v>
+      </c>
+      <c r="E32">
+        <v>-0.03398124231805449</v>
+      </c>
+      <c r="F32">
+        <v>-0.00381563225825912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09963735816986666</v>
+        <v>0.08932686650480995</v>
       </c>
       <c r="C33">
-        <v>-0.01283178773214446</v>
+        <v>-0.006619956632476822</v>
       </c>
       <c r="D33">
-        <v>-0.07513883526689615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.101272555360218</v>
+      </c>
+      <c r="E33">
+        <v>-0.04364540886584838</v>
+      </c>
+      <c r="F33">
+        <v>-0.03717215255144345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07648240133906227</v>
+        <v>0.06794494364786934</v>
       </c>
       <c r="C34">
-        <v>-0.01526980468512588</v>
+        <v>-0.009923120598482795</v>
       </c>
       <c r="D34">
-        <v>-0.09133858052304759</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.109388123342449</v>
+      </c>
+      <c r="E34">
+        <v>-0.03441207027358968</v>
+      </c>
+      <c r="F34">
+        <v>-0.03382649171824996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02289843149287036</v>
+        <v>0.02507765538460549</v>
       </c>
       <c r="C35">
-        <v>-0.002459842457230522</v>
+        <v>-0.002475156722427077</v>
       </c>
       <c r="D35">
-        <v>-0.001964404658104339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01131494829630703</v>
+      </c>
+      <c r="E35">
+        <v>-0.01176157383038096</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007242831843241608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01856487591287823</v>
+        <v>0.02766706720434748</v>
       </c>
       <c r="C36">
-        <v>-0.009217224902788099</v>
+        <v>-0.006786911176859896</v>
       </c>
       <c r="D36">
-        <v>-0.02864474320610971</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03994822305667759</v>
+      </c>
+      <c r="E36">
+        <v>-0.01657508292552086</v>
+      </c>
+      <c r="F36">
+        <v>-0.01584322896031917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0007202135559588854</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006130361857408255</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002506319033142983</v>
+      </c>
+      <c r="E37">
+        <v>0.0009391377882766241</v>
+      </c>
+      <c r="F37">
+        <v>-0.0003777140237344079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006504976997386724</v>
+        <v>-0.0004176755416977718</v>
       </c>
       <c r="C38">
-        <v>9.289129344271792e-05</v>
+        <v>0.0001497572214372628</v>
       </c>
       <c r="D38">
-        <v>-0.001308512949310466</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007139716944832146</v>
+      </c>
+      <c r="E38">
+        <v>0.000108860016073114</v>
+      </c>
+      <c r="F38">
+        <v>0.0001109879708246786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1279616682373367</v>
+        <v>0.1043941453822058</v>
       </c>
       <c r="C39">
-        <v>-0.02327636088793107</v>
+        <v>-0.01534106942250267</v>
       </c>
       <c r="D39">
-        <v>-0.142391119261802</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.154965908982019</v>
+      </c>
+      <c r="E39">
+        <v>-0.05968086525298535</v>
+      </c>
+      <c r="F39">
+        <v>-0.03033198556751794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03132726115628919</v>
+        <v>0.04116999327761178</v>
       </c>
       <c r="C40">
-        <v>-0.009530263261952015</v>
+        <v>-0.006977118125305031</v>
       </c>
       <c r="D40">
-        <v>0.01131037332508214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0303520167974917</v>
+      </c>
+      <c r="E40">
+        <v>-0.001933976963600366</v>
+      </c>
+      <c r="F40">
+        <v>0.01578886186590088</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02426253281179903</v>
+        <v>0.02792516261456448</v>
       </c>
       <c r="C41">
-        <v>-0.006996331779321476</v>
+        <v>-0.006847995119917035</v>
       </c>
       <c r="D41">
-        <v>-0.0007534854969628689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01100021306741455</v>
+      </c>
+      <c r="E41">
+        <v>-0.01235777872781094</v>
+      </c>
+      <c r="F41">
+        <v>0.005644377611918266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03781777559709027</v>
+        <v>0.04068802481184115</v>
       </c>
       <c r="C43">
-        <v>-0.008152611742821274</v>
+        <v>-0.00699304531875788</v>
       </c>
       <c r="D43">
-        <v>-0.00661953159258211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01907338638893996</v>
+      </c>
+      <c r="E43">
+        <v>-0.02523918849958797</v>
+      </c>
+      <c r="F43">
+        <v>0.01215122873122419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08481073220637436</v>
+        <v>0.07950718474955926</v>
       </c>
       <c r="C44">
-        <v>-0.02658296734056085</v>
+        <v>-0.01914961480774474</v>
       </c>
       <c r="D44">
-        <v>-0.0762488695126928</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09758845319681725</v>
+      </c>
+      <c r="E44">
+        <v>-0.06192565644131864</v>
+      </c>
+      <c r="F44">
+        <v>-0.155297072425154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01684962202058097</v>
+        <v>0.02348890878014517</v>
       </c>
       <c r="C46">
-        <v>-0.004022880678384175</v>
+        <v>-0.00328363882403113</v>
       </c>
       <c r="D46">
-        <v>0.00131521931701577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0133266057371002</v>
+      </c>
+      <c r="E46">
+        <v>-0.02640494543534861</v>
+      </c>
+      <c r="F46">
+        <v>0.00638652510614865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05093790792585663</v>
+        <v>0.05252368042434295</v>
       </c>
       <c r="C47">
-        <v>-0.003441620374009837</v>
+        <v>-0.00345277648951954</v>
       </c>
       <c r="D47">
-        <v>0.005257137779854261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01324945543686116</v>
+      </c>
+      <c r="E47">
+        <v>-0.0232986908981525</v>
+      </c>
+      <c r="F47">
+        <v>0.03185427847135743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04728781143891113</v>
+        <v>0.05041325007827957</v>
       </c>
       <c r="C48">
-        <v>-0.005403426039489465</v>
+        <v>-0.002113101557703699</v>
       </c>
       <c r="D48">
-        <v>-0.03702308033412396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05029681935429976</v>
+      </c>
+      <c r="E48">
+        <v>0.004782016536285789</v>
+      </c>
+      <c r="F48">
+        <v>-0.009683499473745961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2021092769802184</v>
+        <v>0.2002750428251439</v>
       </c>
       <c r="C49">
-        <v>-0.01590147644203748</v>
+        <v>-0.01865022728655628</v>
       </c>
       <c r="D49">
-        <v>-0.002760898373677153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005957795712745904</v>
+      </c>
+      <c r="E49">
+        <v>-0.03097720070657134</v>
+      </c>
+      <c r="F49">
+        <v>-0.03766677253575312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05164392951616769</v>
+        <v>0.05128934483787539</v>
       </c>
       <c r="C50">
-        <v>-0.01197462092297295</v>
+        <v>-0.01103778717798351</v>
       </c>
       <c r="D50">
-        <v>-0.01861118039548098</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02484200697266622</v>
+      </c>
+      <c r="E50">
+        <v>-0.03015975881493372</v>
+      </c>
+      <c r="F50">
+        <v>-0.009645909385251446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1590468562131906</v>
+        <v>0.1478558491919955</v>
       </c>
       <c r="C52">
-        <v>-0.01567600236323658</v>
+        <v>-0.01684893105316452</v>
       </c>
       <c r="D52">
-        <v>-0.05381212809772788</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04278767772284764</v>
+      </c>
+      <c r="E52">
+        <v>-0.01986741348164132</v>
+      </c>
+      <c r="F52">
+        <v>-0.04342897882146797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1689541672659927</v>
+        <v>0.1712960649237864</v>
       </c>
       <c r="C53">
-        <v>-0.01551278030829964</v>
+        <v>-0.01945898587453445</v>
       </c>
       <c r="D53">
-        <v>-0.02435815758521841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005459198219160354</v>
+      </c>
+      <c r="E53">
+        <v>-0.02852755635925314</v>
+      </c>
+      <c r="F53">
+        <v>-0.0743334339473472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02196742017760333</v>
+        <v>0.02097951207833452</v>
       </c>
       <c r="C54">
-        <v>-0.01227822744551693</v>
+        <v>-0.01130857500323143</v>
       </c>
       <c r="D54">
-        <v>-0.02329952827790121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03456176342363056</v>
+      </c>
+      <c r="E54">
+        <v>-0.02192467011944941</v>
+      </c>
+      <c r="F54">
+        <v>0.005355308430816931</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.117566842077539</v>
+        <v>0.1143928918223601</v>
       </c>
       <c r="C55">
-        <v>-0.014165374844726</v>
+        <v>-0.01721109689172855</v>
       </c>
       <c r="D55">
-        <v>-0.01660334023494756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007725220540785821</v>
+      </c>
+      <c r="E55">
+        <v>-0.02396259735751706</v>
+      </c>
+      <c r="F55">
+        <v>-0.04707747238229409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1765663745693504</v>
+        <v>0.177015212201804</v>
       </c>
       <c r="C56">
-        <v>-0.01338844501539632</v>
+        <v>-0.01738146472424221</v>
       </c>
       <c r="D56">
-        <v>-0.004567574743050791</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001620635869105118</v>
+      </c>
+      <c r="E56">
+        <v>-0.03370850380839575</v>
+      </c>
+      <c r="F56">
+        <v>-0.05223878195469418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04134829782911682</v>
+        <v>0.04506131403600638</v>
       </c>
       <c r="C58">
-        <v>-0.006664544296501934</v>
+        <v>0.0004775610271003608</v>
       </c>
       <c r="D58">
-        <v>-0.05084750087064318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07169205650196442</v>
+      </c>
+      <c r="E58">
+        <v>-0.03226599185198601</v>
+      </c>
+      <c r="F58">
+        <v>0.03883596036077742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1659344899605113</v>
+        <v>0.1679552410738572</v>
       </c>
       <c r="C59">
-        <v>-0.005145501182431384</v>
+        <v>-0.02225882095982849</v>
       </c>
       <c r="D59">
-        <v>0.2315756642392078</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169936772063829</v>
+      </c>
+      <c r="E59">
+        <v>0.04614290229697112</v>
+      </c>
+      <c r="F59">
+        <v>0.03589219937527758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2460853259860231</v>
+        <v>0.2316239627733097</v>
       </c>
       <c r="C60">
-        <v>0.005167344730098272</v>
+        <v>0.002589444953256116</v>
       </c>
       <c r="D60">
-        <v>-0.05907696130166191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04158342625802258</v>
+      </c>
+      <c r="E60">
+        <v>-0.008880704664138556</v>
+      </c>
+      <c r="F60">
+        <v>0.005667172672543538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09640509566701805</v>
+        <v>0.08034953510988625</v>
       </c>
       <c r="C61">
-        <v>-0.01691066792096145</v>
+        <v>-0.01104995825445851</v>
       </c>
       <c r="D61">
-        <v>-0.09617890823684139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180114868314741</v>
+      </c>
+      <c r="E61">
+        <v>-0.03932872434736696</v>
+      </c>
+      <c r="F61">
+        <v>-0.01360299137609218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1728163876504888</v>
+        <v>0.1696787184305661</v>
       </c>
       <c r="C62">
-        <v>-0.0168457322004625</v>
+        <v>-0.02040267414232455</v>
       </c>
       <c r="D62">
-        <v>-0.004567480360926748</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005869770610027138</v>
+      </c>
+      <c r="E62">
+        <v>-0.03390245875369202</v>
+      </c>
+      <c r="F62">
+        <v>-0.0361260744027577</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04741896325835531</v>
+        <v>0.04581121817820549</v>
       </c>
       <c r="C63">
-        <v>-0.00619914275869738</v>
+        <v>-0.001594673983977914</v>
       </c>
       <c r="D63">
-        <v>-0.04071827624412253</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05908329633860823</v>
+      </c>
+      <c r="E63">
+        <v>-0.02329014291413219</v>
+      </c>
+      <c r="F63">
+        <v>-0.003507023726063253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1021090440689752</v>
+        <v>0.1104935832303296</v>
       </c>
       <c r="C64">
-        <v>-0.01395516822491172</v>
+        <v>-0.01125295527047076</v>
       </c>
       <c r="D64">
-        <v>-0.0234841395622747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04356488089903746</v>
+      </c>
+      <c r="E64">
+        <v>-0.02191322088504101</v>
+      </c>
+      <c r="F64">
+        <v>-0.02581277696310993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1291774948291194</v>
+        <v>0.1499578931710677</v>
       </c>
       <c r="C65">
-        <v>-0.03166067713293862</v>
+        <v>-0.03375335937297488</v>
       </c>
       <c r="D65">
-        <v>0.01809293457523865</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04320730854455054</v>
+      </c>
+      <c r="E65">
+        <v>-0.006751249872896952</v>
+      </c>
+      <c r="F65">
+        <v>-0.03883701254913506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1521308775964695</v>
+        <v>0.1237046397663322</v>
       </c>
       <c r="C66">
-        <v>-0.01980877218936986</v>
+        <v>-0.01317704555696936</v>
       </c>
       <c r="D66">
-        <v>-0.1292419017841871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1434583068612023</v>
+      </c>
+      <c r="E66">
+        <v>-0.06551398825069848</v>
+      </c>
+      <c r="F66">
+        <v>-0.03478321812952317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0618649672751308</v>
+        <v>0.05757662728023613</v>
       </c>
       <c r="C67">
-        <v>-0.004597519421289251</v>
+        <v>-0.002702046747164241</v>
       </c>
       <c r="D67">
-        <v>-0.0471219054310078</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05613839951760802</v>
+      </c>
+      <c r="E67">
+        <v>-0.01654997493977547</v>
+      </c>
+      <c r="F67">
+        <v>0.03109208751871835</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1043725559329696</v>
+        <v>0.1165266061111771</v>
       </c>
       <c r="C68">
-        <v>-0.0152974060194359</v>
+        <v>-0.03285911718889204</v>
       </c>
       <c r="D68">
-        <v>0.2550030322367555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610608399559042</v>
+      </c>
+      <c r="E68">
+        <v>0.08698915823906772</v>
+      </c>
+      <c r="F68">
+        <v>-0.003316274253828495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03996925676919033</v>
+        <v>0.03932670488398934</v>
       </c>
       <c r="C69">
-        <v>-0.0004118225779088</v>
+        <v>-0.001139735992137127</v>
       </c>
       <c r="D69">
-        <v>-0.006240896685170145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008317646228035961</v>
+      </c>
+      <c r="E69">
+        <v>-0.02366316094861345</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009432037115143442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05964942790189569</v>
+        <v>0.06632867970899634</v>
       </c>
       <c r="C70">
-        <v>0.02441123633623196</v>
+        <v>0.0276117065433539</v>
       </c>
       <c r="D70">
-        <v>0.03504749278093502</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0238864772040908</v>
+      </c>
+      <c r="E70">
+        <v>0.0336273463898084</v>
+      </c>
+      <c r="F70">
+        <v>0.184435763070766</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1192085534733922</v>
+        <v>0.1364187075650746</v>
       </c>
       <c r="C71">
-        <v>-0.01940125425578016</v>
+        <v>-0.03719007339830362</v>
       </c>
       <c r="D71">
-        <v>0.2718307102540369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.272508309901554</v>
+      </c>
+      <c r="E71">
+        <v>0.0974025329466135</v>
+      </c>
+      <c r="F71">
+        <v>-0.008595489880902888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1374061875236909</v>
+        <v>0.1425688984569821</v>
       </c>
       <c r="C72">
-        <v>-0.02441929571594571</v>
+        <v>-0.02703481281916361</v>
       </c>
       <c r="D72">
-        <v>0.003030933044209503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003528325554547274</v>
+      </c>
+      <c r="E72">
+        <v>-0.03601365097667505</v>
+      </c>
+      <c r="F72">
+        <v>-0.03221025532459423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1998458271822603</v>
+        <v>0.2038898590231598</v>
       </c>
       <c r="C73">
-        <v>-0.01128726829073124</v>
+        <v>-0.0125792207559054</v>
       </c>
       <c r="D73">
-        <v>-0.01295884348523803</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01775013041147957</v>
+      </c>
+      <c r="E73">
+        <v>-0.06332167364491967</v>
+      </c>
+      <c r="F73">
+        <v>-0.03814225009562216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09222631103577048</v>
+        <v>0.09500945798317807</v>
       </c>
       <c r="C74">
-        <v>-0.01115331169562542</v>
+        <v>-0.01325965997072555</v>
       </c>
       <c r="D74">
-        <v>-0.02813136818656692</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01707516277155434</v>
+      </c>
+      <c r="E74">
+        <v>-0.04425482374914627</v>
+      </c>
+      <c r="F74">
+        <v>-0.0580998245176661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1386560187183583</v>
+        <v>0.1275756218116578</v>
       </c>
       <c r="C75">
-        <v>-0.02603333856774891</v>
+        <v>-0.02805668901993155</v>
       </c>
       <c r="D75">
-        <v>-0.03099551759392452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03045622543037475</v>
+      </c>
+      <c r="E75">
+        <v>-0.05800774809755425</v>
+      </c>
+      <c r="F75">
+        <v>-0.02279788072858789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07069731860040185</v>
+        <v>0.08785160088816024</v>
       </c>
       <c r="C77">
-        <v>-0.01535447807667994</v>
+        <v>-0.007902719425065438</v>
       </c>
       <c r="D77">
-        <v>-0.09847467383239143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.111759090367749</v>
+      </c>
+      <c r="E77">
+        <v>-0.03820531368882964</v>
+      </c>
+      <c r="F77">
+        <v>-0.03616725778152702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1014510048597996</v>
+        <v>0.1000579203135263</v>
       </c>
       <c r="C78">
-        <v>-0.04637115233861791</v>
+        <v>-0.03936406133134317</v>
       </c>
       <c r="D78">
-        <v>-0.09949075777240558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1129625586132879</v>
+      </c>
+      <c r="E78">
+        <v>-0.07336377049303457</v>
+      </c>
+      <c r="F78">
+        <v>-0.04772503117181651</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1677483291042523</v>
+        <v>0.1636969624528608</v>
       </c>
       <c r="C79">
-        <v>-0.02033146759350203</v>
+        <v>-0.02272566667701213</v>
       </c>
       <c r="D79">
-        <v>-0.00643447379843731</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0147747482546047</v>
+      </c>
+      <c r="E79">
+        <v>-0.04634343204063364</v>
+      </c>
+      <c r="F79">
+        <v>-0.01252949214703243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09043218642614304</v>
+        <v>0.08248439069748854</v>
       </c>
       <c r="C80">
-        <v>-0.0006113382237947513</v>
+        <v>0.001061496665285661</v>
       </c>
       <c r="D80">
-        <v>-0.04713290739683407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05605741015032197</v>
+      </c>
+      <c r="E80">
+        <v>-0.03560854223038312</v>
+      </c>
+      <c r="F80">
+        <v>0.02140483435777286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1216825462593746</v>
+        <v>0.1192390124886932</v>
       </c>
       <c r="C81">
-        <v>-0.0285481463604279</v>
+        <v>-0.03182973509711502</v>
       </c>
       <c r="D81">
-        <v>-0.04005569386650989</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01539877562789788</v>
+      </c>
+      <c r="E81">
+        <v>-0.0569741866911109</v>
+      </c>
+      <c r="F81">
+        <v>-0.01895759735887266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1673028111857754</v>
+        <v>0.1655488512308697</v>
       </c>
       <c r="C82">
-        <v>-0.02004397945804984</v>
+        <v>-0.02469829907644772</v>
       </c>
       <c r="D82">
-        <v>-0.03007530420984234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004117762108600983</v>
+      </c>
+      <c r="E82">
+        <v>-0.02679708026642883</v>
+      </c>
+      <c r="F82">
+        <v>-0.08217316905668688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07005282570834376</v>
+        <v>0.0583731861146766</v>
       </c>
       <c r="C83">
-        <v>-0.005346033961663267</v>
+        <v>-0.002570833775081397</v>
       </c>
       <c r="D83">
-        <v>-0.02723093317846563</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05107292454340986</v>
+      </c>
+      <c r="E83">
+        <v>-0.002982211634586423</v>
+      </c>
+      <c r="F83">
+        <v>0.03036096120195444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06949300975568962</v>
+        <v>0.05932070956297059</v>
       </c>
       <c r="C84">
-        <v>-0.01411863741267914</v>
+        <v>-0.01105216702910149</v>
       </c>
       <c r="D84">
-        <v>-0.05340539305724147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06345514422584013</v>
+      </c>
+      <c r="E84">
+        <v>-0.007006549044582115</v>
+      </c>
+      <c r="F84">
+        <v>-0.005388461648207441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1397066592713689</v>
+        <v>0.1355876074024647</v>
       </c>
       <c r="C85">
-        <v>-0.02545046012846262</v>
+        <v>-0.02803438227598834</v>
       </c>
       <c r="D85">
-        <v>-0.01742011626502379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009491316903376814</v>
+      </c>
+      <c r="E85">
+        <v>-0.03647540227614574</v>
+      </c>
+      <c r="F85">
+        <v>-0.04781667615926029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1017000519410404</v>
+        <v>0.09489544973655446</v>
       </c>
       <c r="C86">
-        <v>0.001893989177630257</v>
+        <v>0.005567556277732426</v>
       </c>
       <c r="D86">
-        <v>0.05929667856016815</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04221857124404624</v>
+      </c>
+      <c r="E86">
+        <v>-0.2310355318586622</v>
+      </c>
+      <c r="F86">
+        <v>0.9043223147074642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1021909217716179</v>
+        <v>0.09469648137342074</v>
       </c>
       <c r="C87">
-        <v>-0.02792840358719172</v>
+        <v>-0.01909149563319416</v>
       </c>
       <c r="D87">
-        <v>-0.06059426516846418</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09398416416316584</v>
+      </c>
+      <c r="E87">
+        <v>0.05371262827233442</v>
+      </c>
+      <c r="F87">
+        <v>-0.04695055024897465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05753060049517502</v>
+        <v>0.06082889353654378</v>
       </c>
       <c r="C88">
-        <v>-0.00558422924963308</v>
+        <v>-0.002130260637184411</v>
       </c>
       <c r="D88">
-        <v>-0.04236098934367884</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04973356854649095</v>
+      </c>
+      <c r="E88">
+        <v>-0.02456438393580837</v>
+      </c>
+      <c r="F88">
+        <v>-0.01423493321652272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1201289423142615</v>
+        <v>0.1306044973305003</v>
       </c>
       <c r="C89">
-        <v>0.002310505682519281</v>
+        <v>-0.01366393979362659</v>
       </c>
       <c r="D89">
-        <v>0.2787020742215595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2467626464391793</v>
+      </c>
+      <c r="E89">
+        <v>0.08861337852139187</v>
+      </c>
+      <c r="F89">
+        <v>0.009898480972176452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.132468450305807</v>
+        <v>0.151325552847785</v>
       </c>
       <c r="C90">
-        <v>-0.01606535330581358</v>
+        <v>-0.03401666481144127</v>
       </c>
       <c r="D90">
-        <v>0.2744033368257235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2713317411276349</v>
+      </c>
+      <c r="E90">
+        <v>0.1136373727161509</v>
+      </c>
+      <c r="F90">
+        <v>0.008343175350514074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1172365798434815</v>
+        <v>0.1208080564914085</v>
       </c>
       <c r="C91">
-        <v>-0.01542682585391565</v>
+        <v>-0.01966577113717737</v>
       </c>
       <c r="D91">
-        <v>0.007560086484938016</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01488424704956498</v>
+      </c>
+      <c r="E91">
+        <v>-0.05539847605210875</v>
+      </c>
+      <c r="F91">
+        <v>0.0004272969400529207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1452026190464323</v>
+        <v>0.1481445464204858</v>
       </c>
       <c r="C92">
-        <v>-0.004049612420157134</v>
+        <v>-0.02473149946223385</v>
       </c>
       <c r="D92">
-        <v>0.3073921985474943</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2910015932498311</v>
+      </c>
+      <c r="E92">
+        <v>0.1015980073424065</v>
+      </c>
+      <c r="F92">
+        <v>0.01274216063416425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1345966363816364</v>
+        <v>0.1514871862133235</v>
       </c>
       <c r="C93">
-        <v>-0.01144778276772802</v>
+        <v>-0.02899778721089948</v>
       </c>
       <c r="D93">
-        <v>0.2619431014094556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2668027959233994</v>
+      </c>
+      <c r="E93">
+        <v>0.07824543716161954</v>
+      </c>
+      <c r="F93">
+        <v>-0.002493862014315226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1346010448371983</v>
+        <v>0.1283125654943901</v>
       </c>
       <c r="C94">
-        <v>-0.02343749817745759</v>
+        <v>-0.02437203239877407</v>
       </c>
       <c r="D94">
-        <v>-0.05111919814536443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04217352209006083</v>
+      </c>
+      <c r="E94">
+        <v>-0.0572660669427245</v>
+      </c>
+      <c r="F94">
+        <v>-0.03668268668594695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1254385617643462</v>
+        <v>0.1265854145920305</v>
       </c>
       <c r="C95">
-        <v>-0.009582079009208131</v>
+        <v>-0.002985399996743151</v>
       </c>
       <c r="D95">
-        <v>-0.06729806364876414</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09496788666973835</v>
+      </c>
+      <c r="E95">
+        <v>-0.04942676970952742</v>
+      </c>
+      <c r="F95">
+        <v>0.005457911418662446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.09697251195727258</v>
+        <v>0.1081013444302263</v>
       </c>
       <c r="C96">
-        <v>0.9898177927784814</v>
+        <v>0.9871922864925751</v>
       </c>
       <c r="D96">
-        <v>-0.005777321772788157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05175651854892783</v>
+      </c>
+      <c r="E96">
+        <v>-0.05324381693794636</v>
+      </c>
+      <c r="F96">
+        <v>-0.04249729007510146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1801460790515785</v>
+        <v>0.1908152645717901</v>
       </c>
       <c r="C97">
-        <v>0.009530713548702446</v>
+        <v>0.006947103235634353</v>
       </c>
       <c r="D97">
-        <v>0.04493094758883075</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02076643115536638</v>
+      </c>
+      <c r="E97">
+        <v>-0.01976296128617958</v>
+      </c>
+      <c r="F97">
+        <v>0.09126457036622614</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1945549075523585</v>
+        <v>0.2056436338048505</v>
       </c>
       <c r="C98">
-        <v>-0.006630503176396096</v>
+        <v>-0.006821465453554091</v>
       </c>
       <c r="D98">
-        <v>0.01340328553876436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0127320370666127</v>
+      </c>
+      <c r="E98">
+        <v>0.07843361587254233</v>
+      </c>
+      <c r="F98">
+        <v>0.09482777527453626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05347951208328325</v>
+        <v>0.05452520700835767</v>
       </c>
       <c r="C99">
-        <v>0.002916957383217729</v>
+        <v>0.004687752570148585</v>
       </c>
       <c r="D99">
-        <v>-0.02475215617520687</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03980390143911316</v>
+      </c>
+      <c r="E99">
+        <v>-0.0221922022429596</v>
+      </c>
+      <c r="F99">
+        <v>-0.002280819177166053</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1360156725493524</v>
+        <v>0.1271532101609208</v>
       </c>
       <c r="C100">
-        <v>0.03219332030402391</v>
+        <v>0.05399486500261416</v>
       </c>
       <c r="D100">
-        <v>-0.4306608246012291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3464716703928033</v>
+      </c>
+      <c r="E100">
+        <v>0.8854471025309101</v>
+      </c>
+      <c r="F100">
+        <v>0.1590748777179454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02606618813749365</v>
+        <v>0.02865192716046254</v>
       </c>
       <c r="C101">
-        <v>-0.009850955106977666</v>
+        <v>-0.008684156186562321</v>
       </c>
       <c r="D101">
-        <v>-0.01648738850376413</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03070917125736743</v>
+      </c>
+      <c r="E101">
+        <v>-0.01326208807371468</v>
+      </c>
+      <c r="F101">
+        <v>0.01455647980167314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
